--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$489</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="281">
   <si>
     <t>stop words</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1109,6 +1109,42 @@
   </si>
   <si>
     <t>하나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관찰 중이었으며</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거창</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성은효</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1481,22 +1517,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C491"/>
+  <dimension ref="A1:D489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H252" sqref="H252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1506,115 +1543,118 @@
       <c r="C1" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1638,1220 +1678,1242 @@
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>45</v>
+      <c r="A50" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>221</v>
+      <c r="A59" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>55</v>
+      <c r="A61" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>58</v>
+      <c r="A64" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>60</v>
+      <c r="A66" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>199</v>
+      <c r="A69" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>64</v>
+      <c r="A71" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+    <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+    <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+    <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+    <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+    <row r="99" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+    <row r="100" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>84</v>
+      <c r="A103" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>246</v>
+      <c r="A105" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>89</v>
+      <c r="A111" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+    <row r="116" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+    <row r="117" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+    <row r="123" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+    <row r="124" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
+    <row r="130" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
+    <row r="132" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
+    <row r="134" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+    <row r="141" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+    <row r="142" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
     <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>117</v>
+      <c r="A145" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
+    <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
+    <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B157" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
+    <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+    <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
+    <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+    <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B161" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+    <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B162" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+    <row r="163" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B163" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
+    <row r="164" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
+    <row r="165" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
-        <v>134</v>
+      <c r="A172" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+    <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
-        <v>229</v>
+      <c r="A178" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>142</v>
+      <c r="A180" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="4" t="s">
+    <row r="185" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
+    <row r="186" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+    <row r="187" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>201</v>
+      <c r="A190" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>151</v>
+      <c r="A192" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
-        <v>253</v>
+      <c r="A195" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
+    <row r="200" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="201" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>157</v>
+      <c r="A201" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="4" t="s">
-        <v>164</v>
+      <c r="A209" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
+    <row r="215" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
+    <row r="217" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B217" s="3" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+    <row r="226" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>179</v>
+      <c r="A230" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
-        <v>254</v>
+      <c r="A231" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>180</v>
+      <c r="A232" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="4" t="s">
-        <v>182</v>
+      <c r="A236" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
+    <row r="242" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+    <row r="243" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
+    <row r="249" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="3" t="s">
+    <row r="250" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
-        <v>192</v>
+      <c r="A252" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
-        <v>230</v>
+      <c r="A255" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+    <row r="263" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="264" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="265" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="266" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2881,8 +2943,12 @@
     <row r="290" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="291" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="292" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
+    </row>
     <row r="295" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
     </row>
@@ -2893,43 +2959,43 @@
       <c r="A297" s="1"/>
     </row>
     <row r="298" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="1"/>
+      <c r="A298" s="4"/>
     </row>
     <row r="299" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
     </row>
     <row r="300" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="4"/>
+      <c r="A300" s="1"/>
     </row>
     <row r="301" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
     </row>
     <row r="302" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="1"/>
+      <c r="A302" s="4"/>
     </row>
     <row r="303" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="1"/>
+      <c r="A303" s="4"/>
     </row>
     <row r="304" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="4"/>
+      <c r="A304" s="1"/>
     </row>
     <row r="305" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="4"/>
+      <c r="A305" s="1"/>
     </row>
     <row r="306" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
     </row>
     <row r="307" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="1"/>
+      <c r="A307" s="4"/>
     </row>
     <row r="308" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="1"/>
+      <c r="A308" s="4"/>
     </row>
     <row r="309" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="4"/>
+      <c r="A309" s="1"/>
     </row>
     <row r="310" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="4"/>
+      <c r="A310" s="1"/>
     </row>
     <row r="311" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
@@ -2950,33 +3016,33 @@
       <c r="A316" s="1"/>
     </row>
     <row r="317" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="1"/>
+      <c r="A317" s="4"/>
     </row>
     <row r="318" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
     </row>
     <row r="319" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="4"/>
+      <c r="A319" s="1"/>
     </row>
     <row r="320" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
     </row>
     <row r="321" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="1"/>
+      <c r="A321" s="4"/>
     </row>
     <row r="322" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
     </row>
     <row r="323" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="4"/>
+      <c r="A323" s="1"/>
     </row>
     <row r="324" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
     </row>
-    <row r="325" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
     </row>
-    <row r="326" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
@@ -3001,13 +3067,13 @@
       <c r="A333" s="1"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" s="1"/>
+      <c r="A334" s="4"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" s="4"/>
+      <c r="A336" s="1"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
@@ -3049,13 +3115,13 @@
       <c r="A349" s="1"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" s="1"/>
+      <c r="A350" s="4"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" s="4"/>
+      <c r="A352" s="1"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
@@ -3067,13 +3133,13 @@
       <c r="A355" s="1"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" s="1"/>
+      <c r="A356" s="4"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" s="4"/>
+      <c r="A358" s="1"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
@@ -3082,7 +3148,7 @@
       <c r="A360" s="1"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" s="1"/>
+      <c r="A361" s="4"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
@@ -3091,13 +3157,13 @@
       <c r="A363" s="4"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" s="1"/>
+      <c r="A364" s="4"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" s="4"/>
+      <c r="A365" s="1"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" s="4"/>
+      <c r="A366" s="1"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
@@ -3115,13 +3181,13 @@
       <c r="A371" s="1"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" s="1"/>
+      <c r="A372" s="4"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374" s="4"/>
+      <c r="A374" s="1"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
@@ -3145,13 +3211,13 @@
       <c r="A381" s="1"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" s="1"/>
+      <c r="A382" s="4"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" s="4"/>
+      <c r="A384" s="1"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
@@ -3184,13 +3250,13 @@
       <c r="A394" s="1"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" s="1"/>
+      <c r="A395" s="4"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" s="1"/>
+      <c r="A396" s="4"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" s="4"/>
+      <c r="A397" s="1"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="4"/>
@@ -3199,7 +3265,7 @@
       <c r="A399" s="1"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" s="4"/>
+      <c r="A400" s="1"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
@@ -3244,7 +3310,7 @@
       <c r="A414" s="1"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" s="1"/>
+      <c r="A415" s="4"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
@@ -3256,7 +3322,7 @@
       <c r="A418" s="1"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" s="4"/>
+      <c r="A419" s="1"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
@@ -3271,10 +3337,10 @@
       <c r="A423" s="1"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" s="1"/>
+      <c r="A424" s="4"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" s="1"/>
+      <c r="A425" s="4"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="4"/>
@@ -3283,10 +3349,10 @@
       <c r="A427" s="4"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428" s="4"/>
+      <c r="A428" s="1"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429" s="4"/>
+      <c r="A429" s="1"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
@@ -3304,13 +3370,13 @@
       <c r="A434" s="1"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" s="1"/>
+      <c r="A435" s="4"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" s="4"/>
+      <c r="A437" s="1"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
@@ -3364,13 +3430,13 @@
       <c r="A454" s="1"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" s="1"/>
+      <c r="A455" s="4"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" s="4"/>
+      <c r="A457" s="1"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
@@ -3394,10 +3460,10 @@
       <c r="A464" s="1"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465" s="1"/>
+      <c r="A465" s="4"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466" s="1"/>
+      <c r="A466" s="4"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
@@ -3409,22 +3475,22 @@
       <c r="A469" s="4"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A470" s="4"/>
+      <c r="A470" s="1"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A471" s="4"/>
+      <c r="A471" s="1"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473" s="1"/>
+      <c r="A473" s="4"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A475" s="4"/>
+      <c r="A475" s="1"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
@@ -3468,16 +3534,10 @@
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A490" s="1"/>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A491" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C201">
-    <sortState ref="A2:C260">
-      <sortCondition ref="A1:A201"/>
+  <autoFilter ref="A1:A489">
+    <sortState ref="A2:D491">
+      <sortCondition ref="A1:A491"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$489</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$484</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="304">
   <si>
     <t>stop words</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -424,10 +424,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>복용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>본과</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -536,10 +532,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>역산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>연질</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1064,10 +1056,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>박경대내과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>행시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1145,6 +1133,110 @@
   </si>
   <si>
     <t>t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입원실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주3회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 되는 편</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자라면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베드로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영천베드로내과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박경대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호/인명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>undefined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23/11 월달 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1517,11 +1609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D489"/>
+  <dimension ref="A1:D484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H252" sqref="H252"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1538,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1558,1393 +1650,1534 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
+      <c r="A11" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
+      <c r="A12" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
+      <c r="A18" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
+      <c r="A20" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
+      <c r="A21" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
+      <c r="A23" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
+      <c r="A24" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>280</v>
+      <c r="A28" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>25</v>
+      <c r="A30" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>26</v>
+      <c r="A31" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>28</v>
+      <c r="A33" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>29</v>
+      <c r="A34" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
+      <c r="A35" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
+      <c r="A38" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>215</v>
+      <c r="A39" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>37</v>
+      <c r="A43" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B60" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B61" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="B64" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>69</v>
+      <c r="A82" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>220</v>
+      <c r="A84" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>72</v>
+      <c r="A87" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>73</v>
+      <c r="A88" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>74</v>
+      <c r="A89" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>77</v>
+      <c r="A91" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>203</v>
+      <c r="A92" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>79</v>
+      <c r="A96" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>263</v>
+      <c r="A97" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>222</v>
+        <v>200</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>80</v>
+      <c r="A99" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>81</v>
+      <c r="A100" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>245</v>
+      <c r="A101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>82</v>
+      <c r="A102" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+    <row r="110" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    <row r="119" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    <row r="120" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+    <row r="121" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="124" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="125" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="126" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="127" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+    <row r="128" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+    <row r="129" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="133" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+    <row r="134" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+    <row r="135" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+    <row r="136" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+    <row r="137" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
+    <row r="139" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+    <row r="140" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
+    <row r="141" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="142" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    <row r="143" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+    <row r="144" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+    <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>118</v>
+      <c r="A148" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>232</v>
+      <c r="A149" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>227</v>
+      <c r="A150" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>247</v>
+        <v>275</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>236</v>
+      <c r="A152" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>121</v>
+      <c r="A155" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>122</v>
+      <c r="A156" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>124</v>
+      <c r="A160" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>270</v>
+      <c r="A161" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>125</v>
+      <c r="A162" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>126</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>208</v>
+      <c r="A163" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>204</v>
+        <v>263</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>128</v>
+      <c r="A167" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>129</v>
+      <c r="A168" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>131</v>
+      <c r="A170" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
-        <v>132</v>
+      <c r="A171" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
-        <v>133</v>
+      <c r="A173" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
-        <v>134</v>
+      <c r="A174" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
-        <v>135</v>
+      <c r="A175" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>251</v>
+        <v>291</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
-        <v>137</v>
+      <c r="A178" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>138</v>
+      <c r="A179" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
-        <v>229</v>
+      <c r="A180" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>141</v>
+      <c r="A181" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>142</v>
+      <c r="A182" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>143</v>
+      <c r="A183" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="4" t="s">
-        <v>145</v>
+      <c r="A185" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>213</v>
+      <c r="A186" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>146</v>
+      <c r="A188" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>201</v>
+      <c r="A192" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>150</v>
+      <c r="A193" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>151</v>
+      <c r="A194" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>152</v>
+      <c r="A195" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
-        <v>253</v>
+      <c r="A197" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
-        <v>234</v>
+      <c r="A199" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>158</v>
+      <c r="A206" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>160</v>
+      <c r="A208" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>161</v>
+      <c r="A209" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>162</v>
+      <c r="A210" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>163</v>
+      <c r="A211" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="4" t="s">
-        <v>164</v>
+      <c r="A212" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>274</v>
+      <c r="A215" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
-        <v>243</v>
+      <c r="A216" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>249</v>
+      <c r="A217" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
-        <v>235</v>
+      <c r="A218" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>169</v>
+      <c r="A221" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
-        <v>258</v>
+      <c r="A222" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+    <row r="236" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+    <row r="237" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+    <row r="238" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="4" t="s">
+    <row r="239" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="4" t="s">
+    <row r="241" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="4" t="s">
+    <row r="242" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
     <row r="243" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
-        <v>183</v>
+      <c r="A243" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
-        <v>185</v>
+      <c r="A245" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>238</v>
+        <v>262</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
-        <v>264</v>
+      <c r="A250" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
-        <v>188</v>
+      <c r="A251" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
-        <v>191</v>
+      <c r="A255" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+    <row r="270" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+    <row r="272" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+    <row r="273" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+    <row r="274" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1"/>
+    </row>
     <row r="293" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="1"/>
+      <c r="A293" s="4"/>
     </row>
     <row r="294" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
@@ -2956,7 +3189,7 @@
       <c r="A296" s="1"/>
     </row>
     <row r="297" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="1"/>
+      <c r="A297" s="4"/>
     </row>
     <row r="298" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4"/>
@@ -2986,10 +3219,10 @@
       <c r="A306" s="1"/>
     </row>
     <row r="307" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="4"/>
+      <c r="A307" s="1"/>
     </row>
     <row r="308" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="4"/>
+      <c r="A308" s="1"/>
     </row>
     <row r="309" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
@@ -3001,7 +3234,7 @@
       <c r="A311" s="1"/>
     </row>
     <row r="312" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="1"/>
+      <c r="A312" s="4"/>
     </row>
     <row r="313" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
@@ -3013,10 +3246,10 @@
       <c r="A315" s="1"/>
     </row>
     <row r="316" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="1"/>
+      <c r="A316" s="4"/>
     </row>
     <row r="317" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="4"/>
+      <c r="A317" s="1"/>
     </row>
     <row r="318" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
@@ -3024,19 +3257,19 @@
     <row r="319" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
     </row>
-    <row r="320" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
     </row>
-    <row r="321" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="4"/>
-    </row>
-    <row r="322" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
     </row>
-    <row r="323" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
     </row>
-    <row r="324" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
@@ -3052,7 +3285,7 @@
       <c r="A328" s="1"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" s="1"/>
+      <c r="A329" s="4"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
@@ -3067,7 +3300,7 @@
       <c r="A333" s="1"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" s="4"/>
+      <c r="A334" s="1"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
@@ -3100,7 +3333,7 @@
       <c r="A344" s="1"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" s="1"/>
+      <c r="A345" s="4"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
@@ -3115,10 +3348,10 @@
       <c r="A349" s="1"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" s="4"/>
+      <c r="A350" s="1"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" s="1"/>
+      <c r="A351" s="4"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
@@ -3139,25 +3372,25 @@
       <c r="A357" s="1"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" s="1"/>
+      <c r="A358" s="4"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" s="1"/>
+      <c r="A359" s="4"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" s="4"/>
+      <c r="A361" s="1"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" s="4"/>
+      <c r="A363" s="1"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" s="4"/>
+      <c r="A364" s="1"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
@@ -3166,7 +3399,7 @@
       <c r="A366" s="1"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367" s="1"/>
+      <c r="A367" s="4"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
@@ -3181,7 +3414,7 @@
       <c r="A371" s="1"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" s="4"/>
+      <c r="A372" s="1"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
@@ -3196,7 +3429,7 @@
       <c r="A376" s="1"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377" s="1"/>
+      <c r="A377" s="4"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
@@ -3211,7 +3444,7 @@
       <c r="A381" s="1"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" s="4"/>
+      <c r="A382" s="1"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
@@ -3235,31 +3468,31 @@
       <c r="A389" s="1"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" s="1"/>
+      <c r="A390" s="4"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" s="1"/>
+      <c r="A391" s="4"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" s="1"/>
+      <c r="A393" s="4"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" s="4"/>
+      <c r="A395" s="1"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" s="4"/>
+      <c r="A396" s="1"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" s="4"/>
+      <c r="A398" s="1"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
@@ -3295,13 +3528,13 @@
       <c r="A409" s="1"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" s="1"/>
+      <c r="A410" s="4"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" s="1"/>
+      <c r="A412" s="4"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
@@ -3310,43 +3543,43 @@
       <c r="A414" s="1"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" s="4"/>
+      <c r="A415" s="1"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" s="4"/>
+      <c r="A417" s="1"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" s="1"/>
+      <c r="A419" s="4"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" s="1"/>
+      <c r="A420" s="4"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" s="1"/>
+      <c r="A421" s="4"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" s="1"/>
+      <c r="A422" s="4"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" s="4"/>
+      <c r="A424" s="1"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" s="4"/>
+      <c r="A425" s="1"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" s="4"/>
+      <c r="A426" s="1"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" s="4"/>
+      <c r="A427" s="1"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
@@ -3355,7 +3588,7 @@
       <c r="A429" s="1"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430" s="1"/>
+      <c r="A430" s="4"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
@@ -3370,7 +3603,7 @@
       <c r="A434" s="1"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" s="4"/>
+      <c r="A435" s="1"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
@@ -3415,7 +3648,7 @@
       <c r="A449" s="1"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" s="1"/>
+      <c r="A450" s="4"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
@@ -3430,7 +3663,7 @@
       <c r="A454" s="1"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" s="4"/>
+      <c r="A455" s="1"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
@@ -3445,34 +3678,34 @@
       <c r="A459" s="1"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460" s="1"/>
+      <c r="A460" s="4"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461" s="1"/>
+      <c r="A461" s="4"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462" s="1"/>
+      <c r="A462" s="4"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463" s="1"/>
+      <c r="A463" s="4"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464" s="1"/>
+      <c r="A464" s="4"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465" s="4"/>
+      <c r="A465" s="1"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466" s="4"/>
+      <c r="A466" s="1"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A467" s="4"/>
+      <c r="A467" s="1"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" s="4"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A469" s="4"/>
+      <c r="A469" s="1"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
@@ -3484,7 +3717,7 @@
       <c r="A472" s="1"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473" s="4"/>
+      <c r="A473" s="1"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
@@ -3519,25 +3752,10 @@
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A485" s="1"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A486" s="1"/>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A487" s="1"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A488" s="1"/>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A489" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A489">
-    <sortState ref="A2:D491">
-      <sortCondition ref="A1:A491"/>
+  <autoFilter ref="A1:A484">
+    <sortState ref="A2:D484">
+      <sortCondition ref="A1:A484"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="313">
   <si>
     <t>stop words</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1237,6 +1237,42 @@
   </si>
   <si>
     <t>home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5-S1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조식품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1613,7 +1649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1714,200 +1750,203 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+    <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>42</v>
+      <c r="A52" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>274</v>
+      <c r="A54" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>294</v>
@@ -1915,66 +1954,63 @@
     </row>
     <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>45</v>
+      <c r="A56" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>47</v>
+      <c r="A58" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>294</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>219</v>
+      <c r="A65" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>294</v>
@@ -1982,1180 +2018,1218 @@
     </row>
     <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>57</v>
+      <c r="A69" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>58</v>
+      <c r="A70" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>62</v>
+      <c r="A74" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>197</v>
+      <c r="A75" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>64</v>
+      <c r="A77" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>279</v>
+        <v>218</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>74</v>
+      <c r="A95" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>294</v>
+      <c r="A96" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>77</v>
+      <c r="A97" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>214</v>
+      <c r="A99" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>260</v>
+      <c r="A102" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>220</v>
+        <v>200</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="A104" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
     <row r="107" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>82</v>
+      <c r="A107" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>288</v>
+      <c r="A110" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>84</v>
+      <c r="A111" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>229</v>
+        <v>287</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>267</v>
+      <c r="A117" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>88</v>
+      <c r="A118" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>90</v>
+      <c r="A120" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>238</v>
+      <c r="A121" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>91</v>
+      <c r="A123" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="131" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>98</v>
+      <c r="A133" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>100</v>
+      <c r="A135" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>101</v>
+      <c r="A136" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>102</v>
+      <c r="A138" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>104</v>
+      <c r="A140" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>105</v>
+      <c r="A141" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>107</v>
+      <c r="A143" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>108</v>
+      <c r="A144" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>109</v>
+      <c r="A145" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>294</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>111</v>
+      <c r="A147" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>208</v>
+      <c r="A148" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>298</v>
+      <c r="A151" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>225</v>
+      <c r="A156" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
-        <v>245</v>
+      <c r="A157" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>234</v>
+        <v>275</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
-        <v>121</v>
+      <c r="A163" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>294</v>
+        <v>118</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
-        <v>123</v>
+      <c r="A167" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>267</v>
+      <c r="A168" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>124</v>
+      <c r="A169" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>206</v>
+      <c r="A170" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>202</v>
+        <v>263</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+    <row r="181" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+    <row r="182" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
+    <row r="183" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+    <row r="184" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
+    <row r="185" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
+    <row r="186" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="4" t="s">
+    <row r="187" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
+    <row r="188" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
+    <row r="189" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+    <row r="190" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+    <row r="191" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B191" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+    <row r="192" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+    <row r="193" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
+    <row r="194" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
+    <row r="195" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+    <row r="196" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B196" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C196" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+    <row r="197" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+    <row r="198" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+    <row r="199" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="4" t="s">
+    <row r="200" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+    <row r="201" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B201" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
+    <row r="202" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+    <row r="203" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+    <row r="204" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+    <row r="205" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+    <row r="206" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+    <row r="207" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
+    <row r="208" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B208" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+    <row r="209" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+    <row r="210" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B210" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+    <row r="211" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>154</v>
+      <c r="A213" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>156</v>
+      <c r="A215" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>157</v>
+      <c r="A216" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>158</v>
+      <c r="A217" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>159</v>
+      <c r="A218" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="4" t="s">
-        <v>162</v>
+      <c r="A221" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>283</v>
+      <c r="A224" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>271</v>
+      <c r="A225" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
-        <v>241</v>
+      <c r="A226" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>247</v>
+      <c r="A227" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
-        <v>233</v>
+      <c r="A228" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
-        <v>167</v>
+      <c r="A231" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+    <row r="241" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+    <row r="242" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+    <row r="243" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
-        <v>252</v>
+      <c r="A245" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
-        <v>178</v>
+      <c r="A246" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
-        <v>179</v>
+      <c r="A248" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>294</v>
+      <c r="A249" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
-        <v>226</v>
+      <c r="A252" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
-        <v>181</v>
+      <c r="A253" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
-        <v>184</v>
+      <c r="A257" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>267</v>
+      <c r="A258" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
-        <v>185</v>
+      <c r="A259" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
-        <v>261</v>
+      <c r="A261" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
-        <v>189</v>
+      <c r="A266" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
-        <v>191</v>
+      <c r="A268" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
-        <v>192</v>
+      <c r="A269" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="3" t="s">
-        <v>228</v>
+      <c r="A270" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
-        <v>193</v>
+      <c r="A271" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="283" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="284" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="285" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="392">
   <si>
     <t>stop words</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -788,10 +788,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>호전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>혼자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1273,6 +1269,321 @@
   </si>
   <si>
     <t>니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가도됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가운데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바쁘신 가운데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강심내과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미차병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구가톨릭대학교</t>
+  </si>
+  <si>
+    <t>조동규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정태훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란찜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결명자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주의료원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복현동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강기훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽진호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해민내과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*달동안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*달마다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상북도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경희대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(과초진) 으로 유추</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김광원</t>
+  </si>
+  <si>
+    <t>김기남</t>
+  </si>
+  <si>
+    <t>김기호</t>
+  </si>
+  <si>
+    <t>김남균</t>
+  </si>
+  <si>
+    <t>김완욱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나사렛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나은병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대경영상의학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청도 대남 병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도준영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동강병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국대학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌틸콩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이기태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박언휘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베트남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paralysis of vocal cords and larynx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개월전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고견구하고자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본적은 없는데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보이며</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개이상은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s/p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>with</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012 년도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인된 분임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1645,7 +1956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D484"/>
+  <dimension ref="A1:D531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1654,8 +1965,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
@@ -1666,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1686,2146 +1997,2380 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>281</v>
+      <c r="A4" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
+      <c r="A13" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
+      <c r="A22" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
     <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
+      <c r="A25" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>384</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>277</v>
+        <v>304</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>29</v>
+      <c r="A42" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>33</v>
+      <c r="A46" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>213</v>
+      <c r="A47" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>37</v>
+      <c r="A51" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>38</v>
+      <c r="A52" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>39</v>
+      <c r="A53" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>294</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>42</v>
+      <c r="A56" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>294</v>
+      <c r="A58" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>44</v>
+      <c r="A59" s="4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>48</v>
+      <c r="A63" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>49</v>
+        <v>381</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>294</v>
+      <c r="A65" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>53</v>
+      <c r="A68" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>294</v>
+      <c r="A69" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>58</v>
+      <c r="A74" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
     <row r="99" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>73</v>
+      <c r="A99" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>74</v>
+        <v>345</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>294</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>77</v>
+      <c r="A102" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>201</v>
+      <c r="A103" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>214</v>
+      <c r="A104" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>78</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>296</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>260</v>
+      <c r="A107" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>220</v>
+        <v>234</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>296</v>
+      <c r="A109" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>81</v>
+      <c r="A110" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>82</v>
+      <c r="A112" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>288</v>
+      <c r="A115" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>84</v>
+      <c r="A116" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>85</v>
+      <c r="A117" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>244</v>
+      <c r="A118" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>86</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>229</v>
+      <c r="A120" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>87</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>267</v>
+      <c r="A122" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>88</v>
+      <c r="A123" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>89</v>
+      <c r="A124" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>90</v>
+      <c r="A125" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>238</v>
+      <c r="A126" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>298</v>
+      <c r="A127" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>91</v>
+      <c r="A128" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>93</v>
+      <c r="A130" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>94</v>
+      <c r="A131" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>95</v>
+      <c r="A132" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>96</v>
+        <v>333</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>292</v>
+      <c r="A135" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>239</v>
+      <c r="A136" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>212</v>
+      <c r="A137" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>98</v>
+      <c r="A139" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>310</v>
+      <c r="A141" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>100</v>
+        <v>356</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>101</v>
+      <c r="A143" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>102</v>
+      <c r="A145" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>104</v>
+      <c r="A147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>105</v>
+        <v>358</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>106</v>
+        <v>359</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>107</v>
+      <c r="A150" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>108</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>109</v>
+      <c r="A152" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>111</v>
+      <c r="A154" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>113</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>116</v>
+      <c r="A160" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
-        <v>230</v>
+      <c r="A162" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>225</v>
+      <c r="A163" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>234</v>
+      <c r="A165" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
-        <v>118</v>
+      <c r="A166" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>120</v>
+      <c r="A168" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>290</v>
+      <c r="A169" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
-        <v>121</v>
+      <c r="A170" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>264</v>
+      <c r="A171" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>122</v>
+      <c r="A173" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
-        <v>123</v>
+      <c r="A174" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>267</v>
+      <c r="A175" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>206</v>
+      <c r="A177" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
-        <v>202</v>
+      <c r="A178" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
-        <v>255</v>
+      <c r="A179" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>126</v>
+      <c r="A180" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>128</v>
+      <c r="A182" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>129</v>
+      <c r="A184" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="4" t="s">
-        <v>130</v>
+      <c r="A185" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
-        <v>203</v>
+      <c r="A186" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="4" t="s">
-        <v>131</v>
+      <c r="A187" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="4" t="s">
-        <v>132</v>
+      <c r="A188" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="4" t="s">
-        <v>133</v>
+      <c r="A189" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>199</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>148</v>
+      <c r="A209" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>151</v>
+      <c r="A212" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
-        <v>251</v>
+      <c r="A213" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>232</v>
+      <c r="A215" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>153</v>
+      <c r="A219" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>157</v>
+      <c r="A223" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>158</v>
+      <c r="A224" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
-        <v>159</v>
+      <c r="A225" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
-        <v>160</v>
+      <c r="A226" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>163</v>
+      <c r="A229" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>164</v>
+        <v>124</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
-        <v>282</v>
+      <c r="A231" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>283</v>
+        <v>205</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
-        <v>241</v>
+      <c r="A234" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>247</v>
+      <c r="A235" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
-        <v>233</v>
+      <c r="A236" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>165</v>
+      <c r="A237" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>167</v>
+      <c r="A239" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
-        <v>179</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="4" t="s">
-        <v>180</v>
+      <c r="A258" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
-        <v>257</v>
+      <c r="A259" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
-        <v>226</v>
+      <c r="A260" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
-        <v>182</v>
+      <c r="A262" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>183</v>
+        <v>363</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>294</v>
+        <v>364</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>267</v>
+      <c r="A266" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>185</v>
+        <v>365</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
-        <v>236</v>
+      <c r="A268" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
-        <v>261</v>
+      <c r="A269" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>259</v>
+      <c r="A271" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+    <row r="336" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+    <row r="337" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+    <row r="338" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+    <row r="339" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+    <row r="340" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+    <row r="342" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+    <row r="343" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+    <row r="344" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="1"/>
-    </row>
-    <row r="289" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="1"/>
-    </row>
-    <row r="290" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="291" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="1"/>
-    </row>
-    <row r="292" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="1"/>
-    </row>
-    <row r="293" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="4"/>
-    </row>
-    <row r="294" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="295" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="1"/>
-    </row>
-    <row r="296" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="1"/>
-    </row>
-    <row r="297" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="4"/>
-    </row>
-    <row r="298" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="4"/>
-    </row>
-    <row r="299" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="1"/>
-    </row>
-    <row r="301" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="1"/>
-    </row>
-    <row r="302" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="4"/>
-    </row>
-    <row r="303" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="4"/>
-    </row>
-    <row r="304" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="1"/>
-    </row>
-    <row r="305" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="1"/>
-    </row>
-    <row r="306" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="307" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="308" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="1"/>
-    </row>
-    <row r="309" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="310" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="311" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="1"/>
-    </row>
-    <row r="312" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="4"/>
-    </row>
-    <row r="313" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="1"/>
-    </row>
-    <row r="314" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="1"/>
-    </row>
-    <row r="315" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="1"/>
-    </row>
-    <row r="316" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="4"/>
-    </row>
-    <row r="317" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="1"/>
-    </row>
-    <row r="318" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="1"/>
-    </row>
-    <row r="319" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="1"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" s="1"/>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" s="1"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" s="1"/>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" s="1"/>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" s="1"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" s="1"/>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" s="1"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" s="1"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" s="4"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" s="1"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" s="1"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" s="1"/>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" s="1"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" s="1"/>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" s="1"/>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" s="1"/>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" s="1"/>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" s="1"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" s="1"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" s="1"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" s="1"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" s="4"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="4"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="4"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="4"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="4"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="4"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="4"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="4"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="4"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="4"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
     </row>
+    <row r="485" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:A484">
     <sortState ref="A2:D484">
@@ -3834,5 +4379,6 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$484</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$483</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="403">
   <si>
     <t>stop words</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -540,10 +540,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>올해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1584,6 +1580,54 @@
   </si>
   <si>
     <t>부터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yrs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Several tiny GB polyp &lt; 3 mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮췄다고함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사 '고함'으로 인식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음외래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5g</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1956,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D531"/>
+  <dimension ref="A1:D530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1968,7 +2012,7 @@
     <col min="1" max="1" width="17.25" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1977,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1998,15 +2042,15 @@
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2021,7 +2065,7 @@
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2041,12 +2085,12 @@
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2066,1866 +2110,1921 @@
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
     <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
+      <c r="A23" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
     <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>385</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>383</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>276</v>
+      <c r="A38" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>25</v>
+      <c r="A40" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>299</v>
+      <c r="A42" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>28</v>
+      <c r="A44" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>386</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>29</v>
+      <c r="A46" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>30</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>31</v>
+      <c r="A48" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B52" s="3" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>329</v>
+      <c r="A59" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>293</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>293</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>41</v>
+      <c r="A62" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>316</v>
+      <c r="A63" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>381</v>
+        <v>40</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>382</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>42</v>
+      <c r="A65" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>372</v>
+      <c r="A66" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>43</v>
+        <v>380</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>293</v>
+      <c r="A68" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>46</v>
+      <c r="A71" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>326</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>293</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>293</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="B82" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+    <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+    <row r="98" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    </row>
+    <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+    <row r="106" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+    <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+    <row r="109" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>67</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>68</v>
+      <c r="A115" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>69</v>
+      <c r="A116" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>348</v>
+      <c r="A118" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>350</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>351</v>
+      <c r="A121" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>352</v>
+      <c r="A122" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>216</v>
+      <c r="A123" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>319</v>
+      <c r="A124" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>217</v>
+      <c r="A125" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>354</v>
+      <c r="A127" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>387</v>
+      <c r="A128" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>388</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>70</v>
+      <c r="A129" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>311</v>
+        <v>216</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>71</v>
+      <c r="A131" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>72</v>
+      <c r="A132" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>278</v>
+      <c r="A133" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>334</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>336</v>
+      <c r="A135" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>73</v>
+      <c r="A136" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>337</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>74</v>
+        <v>398</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>355</v>
+      <c r="A139" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>320</v>
+      <c r="A141" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>357</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>77</v>
+      <c r="A143" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>200</v>
+      <c r="A144" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>213</v>
+      <c r="A145" s="6" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>295</v>
+      <c r="A147" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>359</v>
+        <v>76</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>259</v>
+        <v>198</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>360</v>
+      <c r="A151" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>219</v>
+      <c r="A152" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
-        <v>81</v>
+      <c r="A154" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
-        <v>242</v>
+      <c r="A155" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>82</v>
+      <c r="A156" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>287</v>
+      <c r="A160" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>362</v>
+      <c r="A161" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>85</v>
+        <v>360</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>228</v>
+        <v>285</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>87</v>
+        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>266</v>
+      <c r="A168" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>89</v>
+      <c r="A170" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>297</v>
+      <c r="A173" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>368</v>
+      <c r="A174" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
-        <v>91</v>
+      <c r="A175" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+    <row r="184" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+    <row r="185" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
     <row r="186" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>97</v>
+      <c r="A186" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>379</v>
+        <v>96</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>98</v>
+      <c r="A188" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>99</v>
+      <c r="A189" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>328</v>
+      <c r="A191" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="4" t="s">
-        <v>101</v>
+      <c r="A193" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>377</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
-        <v>214</v>
+      <c r="A195" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="4" t="s">
-        <v>391</v>
+      <c r="A196" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="4" t="s">
-        <v>102</v>
+      <c r="A197" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B198" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="203" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>107</v>
+      <c r="A203" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>108</v>
+        <v>388</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>373</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>109</v>
+      <c r="A206" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>293</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
-        <v>207</v>
+      <c r="A209" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>113</v>
+        <v>372</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>297</v>
+      <c r="A212" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>117</v>
+      <c r="A215" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
-        <v>229</v>
+      <c r="A216" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>224</v>
+      <c r="A217" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>244</v>
+        <v>273</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
-        <v>233</v>
+      <c r="A219" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>120</v>
+      <c r="A222" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
-        <v>121</v>
+      <c r="A224" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
-        <v>208</v>
+      <c r="A226" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="4" t="s">
-        <v>123</v>
+      <c r="A228" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>125</v>
+      <c r="A230" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
-        <v>206</v>
+      <c r="A231" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
-        <v>254</v>
+      <c r="A233" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>126</v>
+      <c r="A234" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>127</v>
+      <c r="A235" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+    <row r="243" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="4" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>293</v>
+      <c r="A246" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
-        <v>135</v>
+      <c r="A247" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
-        <v>136</v>
+      <c r="A248" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
-        <v>226</v>
+      <c r="A249" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>139</v>
+        <v>292</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
-        <v>142</v>
+      <c r="A254" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="4" t="s">
-        <v>143</v>
+      <c r="A255" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
-        <v>209</v>
+      <c r="A256" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>210</v>
+        <v>137</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
-        <v>247</v>
+      <c r="A257" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
-        <v>146</v>
+      <c r="A260" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
-        <v>147</v>
+      <c r="A261" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>198</v>
+      <c r="A263" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>363</v>
+        <v>144</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>364</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
-        <v>365</v>
+      <c r="A267" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
-        <v>149</v>
+      <c r="A268" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>294</v>
+        <v>197</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="4" t="s">
-        <v>366</v>
+      <c r="A269" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>150</v>
+        <v>363</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="3" t="s">
-        <v>250</v>
+      <c r="A273" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
-        <v>152</v>
+      <c r="A274" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
-        <v>231</v>
+      <c r="A275" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>253</v>
+      <c r="A276" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
-        <v>271</v>
+      <c r="A277" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
-        <v>154</v>
+      <c r="A280" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
-        <v>155</v>
+      <c r="A281" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
-        <v>156</v>
+      <c r="A282" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
-        <v>157</v>
+      <c r="A283" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="4" t="s">
-        <v>162</v>
+      <c r="A288" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>321</v>
+        <v>160</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>282</v>
+      <c r="A293" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="3" t="s">
-        <v>310</v>
+      <c r="A294" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>270</v>
+      <c r="A295" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
-        <v>240</v>
+      <c r="A296" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>246</v>
+      <c r="A297" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>232</v>
+        <v>280</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
-        <v>165</v>
+      <c r="A299" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
-        <v>166</v>
+      <c r="A300" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
-        <v>167</v>
+      <c r="A301" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
-        <v>168</v>
+      <c r="A303" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+    <row r="311" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+    <row r="312" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="4" t="s">
+    <row r="313" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="4" t="s">
+    <row r="314" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="4" t="s">
+    <row r="316" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="4" t="s">
+    <row r="317" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="4" t="s">
+    <row r="318" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+    <row r="320" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>225</v>
+        <v>240</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
-        <v>182</v>
+      <c r="A324" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>285</v>
+      <c r="A325" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
-        <v>183</v>
+      <c r="A326" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>293</v>
+      <c r="A327" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>266</v>
+      <c r="A328" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>235</v>
+        <v>283</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="3" t="s">
-        <v>260</v>
+      <c r="A331" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+    <row r="341" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+    <row r="342" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+    <row r="343" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+    <row r="344" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+    <row r="345" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+    <row r="347" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+    <row r="348" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="343" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+    <row r="349" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="1"/>
-    </row>
-    <row r="347" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="1"/>
-    </row>
-    <row r="348" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="1"/>
-    </row>
-    <row r="349" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="350" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="1"/>
-    </row>
-    <row r="351" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="4"/>
-    </row>
-    <row r="352" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1"/>
+    </row>
+    <row r="352" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
     </row>
     <row r="353" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3935,19 +4034,19 @@
       <c r="A354" s="1"/>
     </row>
     <row r="355" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="1"/>
+      <c r="A355" s="4"/>
     </row>
     <row r="356" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="4"/>
+      <c r="A356" s="1"/>
     </row>
     <row r="357" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="1"/>
+      <c r="A357" s="4"/>
     </row>
     <row r="358" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4"/>
     </row>
     <row r="359" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="4"/>
+      <c r="A359" s="1"/>
     </row>
     <row r="360" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
@@ -3968,10 +4067,10 @@
       <c r="A365" s="1"/>
     </row>
     <row r="366" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="1"/>
+      <c r="A366" s="4"/>
     </row>
     <row r="367" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="4"/>
+      <c r="A367" s="1"/>
     </row>
     <row r="368" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
@@ -3998,10 +4097,10 @@
       <c r="A375" s="1"/>
     </row>
     <row r="376" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="1"/>
+      <c r="A376" s="4"/>
     </row>
     <row r="377" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="4"/>
+      <c r="A377" s="1"/>
     </row>
     <row r="378" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
@@ -4037,19 +4136,19 @@
       <c r="A388" s="1"/>
     </row>
     <row r="389" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="1"/>
+      <c r="A389" s="4"/>
     </row>
     <row r="390" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4"/>
     </row>
     <row r="391" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="4"/>
+      <c r="A391" s="1"/>
     </row>
     <row r="392" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="1"/>
+      <c r="A392" s="4"/>
     </row>
     <row r="393" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="4"/>
+      <c r="A393" s="1"/>
     </row>
     <row r="394" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
@@ -4097,16 +4196,16 @@
       <c r="A408" s="1"/>
     </row>
     <row r="409" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="1"/>
+      <c r="A409" s="4"/>
     </row>
     <row r="410" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="4"/>
+      <c r="A410" s="1"/>
     </row>
     <row r="411" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="1"/>
+      <c r="A411" s="4"/>
     </row>
     <row r="412" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="4"/>
+      <c r="A412" s="1"/>
     </row>
     <row r="413" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
@@ -4124,7 +4223,7 @@
       <c r="A417" s="1"/>
     </row>
     <row r="418" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="1"/>
+      <c r="A418" s="4"/>
     </row>
     <row r="419" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="4"/>
@@ -4136,7 +4235,7 @@
       <c r="A421" s="4"/>
     </row>
     <row r="422" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="4"/>
+      <c r="A422" s="1"/>
     </row>
     <row r="423" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
@@ -4157,10 +4256,10 @@
       <c r="A428" s="1"/>
     </row>
     <row r="429" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="1"/>
+      <c r="A429" s="4"/>
     </row>
     <row r="430" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="4"/>
+      <c r="A430" s="1"/>
     </row>
     <row r="431" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
@@ -4217,10 +4316,10 @@
       <c r="A448" s="1"/>
     </row>
     <row r="449" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="1"/>
+      <c r="A449" s="4"/>
     </row>
     <row r="450" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="4"/>
+      <c r="A450" s="1"/>
     </row>
     <row r="451" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
@@ -4247,7 +4346,7 @@
       <c r="A458" s="1"/>
     </row>
     <row r="459" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="1"/>
+      <c r="A459" s="4"/>
     </row>
     <row r="460" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="4"/>
@@ -4262,7 +4361,7 @@
       <c r="A463" s="4"/>
     </row>
     <row r="464" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="4"/>
+      <c r="A464" s="1"/>
     </row>
     <row r="465" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
@@ -4271,10 +4370,10 @@
       <c r="A466" s="1"/>
     </row>
     <row r="467" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="1"/>
+      <c r="A467" s="4"/>
     </row>
     <row r="468" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="4"/>
+      <c r="A468" s="1"/>
     </row>
     <row r="469" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
@@ -4321,9 +4420,7 @@
     <row r="483" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
     </row>
-    <row r="484" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="1"/>
-    </row>
+    <row r="484" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="485" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="486" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="487" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4370,11 +4467,10 @@
     <row r="528" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="529" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="530" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:A484">
-    <sortState ref="A2:D484">
-      <sortCondition ref="A1:A484"/>
+  <autoFilter ref="A1:A483">
+    <sortState ref="A2:D483">
+      <sortCondition ref="A1:A483"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$483</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$480</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="449">
   <si>
     <t>stop words</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,10 +500,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>신검</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -628,10 +624,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자주</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -684,10 +676,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>증상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1628,6 +1616,202 @@
   </si>
   <si>
     <t>5g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요하여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요하다 로 verb에서 처리되야 하나, wiki nouns 목록에 '요하'가 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁘다는 말 안하던데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진통제? 인지 모르는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가렵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6점대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려대련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사&gt;상호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noun&gt;nouns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 3 회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>간의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투석 같의 BW gain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화목토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10-E14†.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바쁘신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부탁드립니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바쁘시더라도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1698,7 +1882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1719,6 +1903,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2000,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D530"/>
+  <dimension ref="A1:F527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2013,2124 +2200,2337 @@
     <col min="2" max="2" width="29.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="9.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E27" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>305</v>
+      <c r="A36" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>304</v>
+      <c r="A37" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>384</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>24</v>
+      <c r="A41" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>25</v>
+      <c r="A42" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>28</v>
+      <c r="A46" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>385</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="3" t="s">
+    </row>
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    </row>
+    <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+    <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="B86" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="B87" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="B90" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="B113" s="3" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>346</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>219</v>
+      <c r="A115" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>400</v>
+      <c r="A116" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>229</v>
+      <c r="A117" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>220</v>
+      <c r="A118" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>68</v>
+        <v>370</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>69</v>
+      <c r="A121" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>293</v>
+      <c r="A123" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>293</v>
+      <c r="A124" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>293</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>293</v>
+      <c r="A126" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>293</v>
+      <c r="A127" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>293</v>
+      <c r="A128" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>394</v>
+      <c r="A129" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>293</v>
+      <c r="A130" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>352</v>
+      <c r="A131" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>353</v>
+      <c r="A132" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>387</v>
+        <v>290</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>70</v>
+        <v>346</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>310</v>
+      <c r="A135" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>71</v>
+        <v>348</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>72</v>
+      <c r="A137" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>398</v>
+      <c r="A138" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>277</v>
+        <v>213</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>335</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>73</v>
+        <v>383</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>336</v>
+      <c r="A143" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>74</v>
+      <c r="A144" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
-        <v>354</v>
+      <c r="A145" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>292</v>
+      <c r="A146" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>319</v>
+      <c r="A147" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>77</v>
+      <c r="A149" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>198</v>
+      <c r="A150" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>199</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>212</v>
+      <c r="A151" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>294</v>
+      <c r="A153" s="4" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>357</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>358</v>
+      <c r="A155" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
-        <v>258</v>
+      <c r="A156" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>359</v>
+      <c r="A157" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
-        <v>218</v>
+      <c r="A158" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>294</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>81</v>
+      <c r="A160" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>360</v>
+        <v>79</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>238</v>
+      <c r="A164" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>83</v>
+        <v>355</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>84</v>
+      <c r="A168" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>242</v>
+      <c r="A170" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
-        <v>86</v>
+      <c r="A171" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
-        <v>227</v>
+      <c r="A172" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>87</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E180" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+    <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E187" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+    <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B180" s="3" t="s">
+    <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>98</v>
+        <v>364</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>99</v>
+      <c r="A195" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
-        <v>308</v>
+      <c r="A196" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>327</v>
+        <v>93</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="4" t="s">
-        <v>101</v>
+      <c r="A199" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>376</v>
+      <c r="A200" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
-        <v>213</v>
+      <c r="A201" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="4" t="s">
-        <v>390</v>
+      <c r="A202" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="4" t="s">
-        <v>102</v>
+      <c r="A203" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>389</v>
+      <c r="A204" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>103</v>
+      <c r="A205" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="4" t="s">
-        <v>104</v>
+      <c r="A206" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>105</v>
+        <v>374</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E211" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E217" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+    <row r="225" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>119</v>
+        <v>369</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
-        <v>287</v>
+      <c r="A229" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="4" t="s">
-        <v>121</v>
+      <c r="A230" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="3" t="s">
-        <v>207</v>
+      <c r="A232" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>292</v>
+        <v>113</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="4" t="s">
-        <v>123</v>
+      <c r="A234" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
-        <v>263</v>
+      <c r="A235" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>265</v>
+        <v>115</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>204</v>
+      <c r="A237" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>253</v>
+        <v>219</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E241" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+    <row r="258" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+    <row r="259" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
+    <row r="261" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E265" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+    </row>
+    <row r="269" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B251" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+    </row>
+    <row r="270" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+    <row r="271" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="B273" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="C273" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C256" s="3" t="s">
+    </row>
+    <row r="274" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+    <row r="275" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+    <row r="276" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+    <row r="277" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="4" t="s">
+    <row r="278" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="3" t="s">
+    <row r="281" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E283" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+    <row r="297" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E297" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E301" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+    <row r="304" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
+    <row r="305" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E311" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B281" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B302" s="3" t="s">
+    </row>
+    <row r="328" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E331" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+    <row r="336" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="312" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="4" t="s">
+    <row r="337" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="313" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="4" t="s">
+    <row r="338" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="4" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
-        <v>187</v>
+      <c r="A341" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
-        <v>189</v>
+      <c r="A343" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>226</v>
+        <v>257</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
-        <v>191</v>
+      <c r="A346" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
-        <v>192</v>
+      <c r="A347" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
-        <v>193</v>
+      <c r="A348" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>323</v>
+        <v>177</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="1"/>
+      <c r="A351" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="352" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="353" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="354" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="1"/>
-    </row>
-    <row r="355" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="4"/>
-    </row>
-    <row r="356" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="357" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="4"/>
-    </row>
-    <row r="358" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="4"/>
-    </row>
-    <row r="359" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="1"/>
-    </row>
-    <row r="360" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="1"/>
-    </row>
-    <row r="361" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="1"/>
-    </row>
-    <row r="362" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="1"/>
-    </row>
-    <row r="363" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="1"/>
-    </row>
-    <row r="364" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="1"/>
-    </row>
-    <row r="365" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="1"/>
-    </row>
-    <row r="366" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="4"/>
-    </row>
-    <row r="367" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="1"/>
-    </row>
-    <row r="368" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="1"/>
-    </row>
-    <row r="369" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="370" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="1"/>
-    </row>
-    <row r="371" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="372" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="1"/>
-    </row>
-    <row r="373" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="374" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E367" s="7">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E370" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
     </row>
-    <row r="375" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
     </row>
-    <row r="376" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="4"/>
-    </row>
-    <row r="377" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="377" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
     </row>
-    <row r="378" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
     </row>
-    <row r="379" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
     </row>
-    <row r="380" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
     </row>
-    <row r="381" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
     </row>
-    <row r="382" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
     </row>
-    <row r="383" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
     </row>
-    <row r="384" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
     </row>
     <row r="385" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
     </row>
     <row r="386" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="1"/>
+      <c r="A386" s="4"/>
     </row>
     <row r="387" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="1"/>
+      <c r="A387" s="4"/>
     </row>
     <row r="388" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
@@ -4139,13 +4539,13 @@
       <c r="A389" s="4"/>
     </row>
     <row r="390" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="4"/>
+      <c r="A390" s="1"/>
     </row>
     <row r="391" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
     </row>
     <row r="392" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="4"/>
+      <c r="A392" s="1"/>
     </row>
     <row r="393" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
@@ -4187,22 +4587,22 @@
       <c r="A405" s="1"/>
     </row>
     <row r="406" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="1"/>
+      <c r="A406" s="4"/>
     </row>
     <row r="407" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
     </row>
     <row r="408" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="1"/>
+      <c r="A408" s="4"/>
     </row>
     <row r="409" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="4"/>
+      <c r="A409" s="1"/>
     </row>
     <row r="410" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
     </row>
     <row r="411" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="4"/>
+      <c r="A411" s="1"/>
     </row>
     <row r="412" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
@@ -4214,25 +4614,25 @@
       <c r="A414" s="1"/>
     </row>
     <row r="415" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="1"/>
+      <c r="A415" s="4"/>
     </row>
     <row r="416" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="1"/>
+      <c r="A416" s="4"/>
     </row>
     <row r="417" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="1"/>
+      <c r="A417" s="4"/>
     </row>
     <row r="418" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="4"/>
     </row>
     <row r="419" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="4"/>
+      <c r="A419" s="1"/>
     </row>
     <row r="420" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="4"/>
+      <c r="A420" s="1"/>
     </row>
     <row r="421" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="4"/>
+      <c r="A421" s="1"/>
     </row>
     <row r="422" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
@@ -4247,7 +4647,7 @@
       <c r="A425" s="1"/>
     </row>
     <row r="426" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="1"/>
+      <c r="A426" s="4"/>
     </row>
     <row r="427" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
@@ -4256,7 +4656,7 @@
       <c r="A428" s="1"/>
     </row>
     <row r="429" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="4"/>
+      <c r="A429" s="1"/>
     </row>
     <row r="430" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
@@ -4307,7 +4707,7 @@
       <c r="A445" s="1"/>
     </row>
     <row r="446" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="1"/>
+      <c r="A446" s="4"/>
     </row>
     <row r="447" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
@@ -4316,7 +4716,7 @@
       <c r="A448" s="1"/>
     </row>
     <row r="449" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="4"/>
+      <c r="A449" s="1"/>
     </row>
     <row r="450" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
@@ -4337,13 +4737,13 @@
       <c r="A455" s="1"/>
     </row>
     <row r="456" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="1"/>
+      <c r="A456" s="4"/>
     </row>
     <row r="457" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="1"/>
+      <c r="A457" s="4"/>
     </row>
     <row r="458" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="1"/>
+      <c r="A458" s="4"/>
     </row>
     <row r="459" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="4"/>
@@ -4352,16 +4752,16 @@
       <c r="A460" s="4"/>
     </row>
     <row r="461" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="4"/>
+      <c r="A461" s="1"/>
     </row>
     <row r="462" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="4"/>
+      <c r="A462" s="1"/>
     </row>
     <row r="463" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="4"/>
+      <c r="A463" s="1"/>
     </row>
     <row r="464" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="1"/>
+      <c r="A464" s="4"/>
     </row>
     <row r="465" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
@@ -4370,7 +4770,7 @@
       <c r="A466" s="1"/>
     </row>
     <row r="467" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="4"/>
+      <c r="A467" s="1"/>
     </row>
     <row r="468" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
@@ -4411,28 +4811,22 @@
     <row r="480" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
     </row>
-    <row r="481" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="1"/>
-    </row>
-    <row r="482" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="1"/>
-    </row>
-    <row r="483" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="1"/>
-    </row>
-    <row r="484" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="497" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="498" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="499" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4464,13 +4858,10 @@
     <row r="525" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="526" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="527" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:A483">
-    <sortState ref="A2:D483">
-      <sortCondition ref="A1:A483"/>
+  <autoFilter ref="A1:A480">
+    <sortState ref="A2:F480">
+      <sortCondition ref="A1:A480"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuh\PycharmProjects\project-emrkcd-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\close\Downloads\6_dictionary_verb.xlsx_240514\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$480</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$482</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="473">
   <si>
     <t>stop words</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1812,13 +1812,109 @@
   </si>
   <si>
     <t>인명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닳인물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤정수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로부터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관하여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피검사한건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보여서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자영업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏘팔메토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미강</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이균증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2187,11 +2283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F527"/>
+  <dimension ref="A1:F529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2357,700 +2453,706 @@
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>455</v>
+      </c>
+      <c r="E25" s="7">
+        <v>45400</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="E27" s="7">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="E28" s="7">
         <v>45397</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E33" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+    <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+    <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E63" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+    <row r="64" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E67" s="7">
         <v>45397</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E79" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>47</v>
+        <v>462</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>322</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E85" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>289</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>289</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>51</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>426</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>214</v>
+      <c r="A91" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>334</v>
+      <c r="A92" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>335</v>
+      <c r="A95" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>56</v>
+      <c r="A96" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>336</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>337</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>321</v>
+      <c r="A99" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>58</v>
+      <c r="A101" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>59</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>60</v>
+      <c r="A103" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E104" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>418</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>338</v>
+      <c r="A105" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>339</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>394</v>
+        <v>417</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+    <row r="116" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    <row r="117" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    <row r="118" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+    <row r="119" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+    <row r="120" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+    <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="123" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="125" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+    <row r="126" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+    <row r="127" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>69</v>
+      <c r="A130" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>294</v>
+      <c r="A131" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>290</v>
+      <c r="A132" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>290</v>
+      <c r="A133" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>290</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>290</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B137" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
     <row r="139" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>213</v>
+      <c r="A139" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>290</v>
@@ -3058,1517 +3160,1626 @@
     </row>
     <row r="140" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>447</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>383</v>
+      <c r="A142" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>384</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>70</v>
+      <c r="A143" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+    <row r="151" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B151" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
+    <row r="152" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
+    <row r="153" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+    <row r="154" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B154" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
+    <row r="155" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+    <row r="156" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B156" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+    <row r="157" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B157" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+    <row r="158" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E158" s="7">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
+    <row r="160" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+    <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
+    <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>448</v>
+      <c r="A164" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>255</v>
+      <c r="A166" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>356</v>
+      <c r="A167" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B169" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="171" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
-        <v>238</v>
+      <c r="A171" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+    <row r="180" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+    <row r="181" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+    <row r="182" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
+    <row r="183" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+    <row r="184" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+    <row r="185" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+    <row r="186" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E186" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+    <row r="188" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B188" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E188" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+    <row r="189" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+    <row r="190" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+    <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B194" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+    <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+    <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E187" s="7">
+      <c r="E196" s="7">
         <v>45397</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F196" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+    <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
+    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
+    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E200" s="7">
         <v>45398</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="F200" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E201" s="7">
         <v>45398</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="F201" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B202" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B203" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="4" t="s">
+    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+    <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+    <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+    <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+    <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+    <row r="210" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
+    <row r="211" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B211" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+    <row r="212" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
+    <row r="213" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
+    <row r="214" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E211" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>373</v>
+        <v>97</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
-        <v>210</v>
+      <c r="A216" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E216" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E217" s="7">
-        <v>45398</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>442</v>
+        <v>374</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
-        <v>387</v>
+      <c r="A218" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
-        <v>102</v>
+      <c r="A219" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>386</v>
+      <c r="A220" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>103</v>
+        <v>433</v>
+      </c>
+      <c r="E221" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="4" t="s">
-        <v>104</v>
+      <c r="A222" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E227" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E233" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+    <row r="235" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+    <row r="236" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+    <row r="237" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+    <row r="238" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+    <row r="239" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+    <row r="240" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B240" s="3" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E241" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>420</v>
+        <v>111</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="4" t="s">
-        <v>120</v>
+      <c r="A246" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>259</v>
+      <c r="A247" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
-        <v>204</v>
+      <c r="A248" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>289</v>
+      <c r="A249" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="4" t="s">
-        <v>122</v>
+      <c r="A250" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>124</v>
+        <v>419</v>
+      </c>
+      <c r="E252" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>201</v>
+      <c r="A253" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
-        <v>197</v>
+      <c r="A254" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
-        <v>250</v>
+      <c r="A255" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E255" s="7">
+        <v>45400</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
-        <v>126</v>
+      <c r="A257" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
-        <v>127</v>
+      <c r="A258" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>289</v>
+      <c r="A259" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E259" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="4" t="s">
-        <v>128</v>
+      <c r="A260" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="4" t="s">
-        <v>129</v>
+      <c r="A262" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="4" t="s">
-        <v>131</v>
+      <c r="A264" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>400</v>
+        <v>123</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E265" s="7">
-        <v>45397</v>
+        <v>124</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
-        <v>318</v>
+      <c r="A266" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>289</v>
+      <c r="A268" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="3" t="s">
-        <v>222</v>
+      <c r="A271" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>137</v>
+        <v>449</v>
+      </c>
+      <c r="E273" s="7">
+        <v>45400</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
-        <v>138</v>
+      <c r="A274" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
-        <v>139</v>
+      <c r="A275" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
-        <v>140</v>
+      <c r="A276" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>206</v>
+      <c r="A278" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="3" t="s">
-        <v>243</v>
+      <c r="A279" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E279" s="7">
+        <v>45397</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
-        <v>143</v>
+      <c r="A281" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E283" s="7">
-        <v>45397</v>
+        <v>133</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>194</v>
+        <v>297</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>290</v>
+        <v>136</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E292" s="7">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E298" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E302" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B304" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+    <row r="305" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+    <row r="306" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B306" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
+    <row r="307" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B307" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="4" t="s">
+    <row r="308" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B308" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
+    <row r="309" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+    <row r="310" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
+    <row r="311" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B311" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
+    <row r="312" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="4" t="s">
+    <row r="313" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E313" s="7">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B314" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E297" s="7">
+      <c r="E314" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
+    <row r="315" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
+    <row r="316" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B316" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
+    <row r="317" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B317" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
+    <row r="318" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E301" s="7">
+      <c r="E318" s="7">
         <v>45398</v>
       </c>
-      <c r="F301" s="3" t="s">
+      <c r="F318" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="3" t="s">
+    <row r="319" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
+    <row r="320" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E320" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+    <row r="322" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+    <row r="323" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+    <row r="324" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E311" s="7">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="3" t="s">
-        <v>251</v>
+      <c r="A327" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
-        <v>165</v>
+      <c r="A329" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E329" s="7">
+        <v>45397</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E331" s="7">
-        <v>45397</v>
+      <c r="A331" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E344" s="7">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E350" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="4" t="s">
+    <row r="352" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="4" t="s">
+    <row r="353" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="4" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
-        <v>181</v>
+      <c r="A355" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="3" t="s">
-        <v>231</v>
+      <c r="A356" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="3" t="s">
-        <v>256</v>
+      <c r="A357" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
-        <v>182</v>
+      <c r="A358" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>328</v>
+        <v>173</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
-        <v>184</v>
+      <c r="A362" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
-        <v>186</v>
+      <c r="A364" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
-        <v>187</v>
+      <c r="A365" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E367" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+    <row r="387" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B387" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E367" s="7">
+      <c r="E387" s="7">
         <v>45398</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+    <row r="388" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+    <row r="389" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+    <row r="390" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B390" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E370" s="7">
+      <c r="E390" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+    <row r="391" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+    <row r="392" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+    <row r="393" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="1"/>
-    </row>
-    <row r="375" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="1"/>
-    </row>
-    <row r="376" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="1"/>
-    </row>
-    <row r="377" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="1"/>
-    </row>
-    <row r="378" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="1"/>
-    </row>
-    <row r="379" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="1"/>
-    </row>
-    <row r="380" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="1"/>
-    </row>
-    <row r="381" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="1"/>
-    </row>
-    <row r="382" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="1"/>
-    </row>
-    <row r="383" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="1"/>
-    </row>
-    <row r="384" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="1"/>
-    </row>
-    <row r="385" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="1"/>
-    </row>
-    <row r="386" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="4"/>
-    </row>
-    <row r="387" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="4"/>
-    </row>
-    <row r="388" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="1"/>
-    </row>
-    <row r="389" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="4"/>
-    </row>
-    <row r="390" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="1"/>
-    </row>
-    <row r="391" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="1"/>
-    </row>
-    <row r="392" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="1"/>
-    </row>
-    <row r="393" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="1"/>
-    </row>
-    <row r="394" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E393" s="7">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
     </row>
-    <row r="395" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
     </row>
-    <row r="396" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
     </row>
-    <row r="397" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
     </row>
-    <row r="398" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
     </row>
-    <row r="399" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
     </row>
-    <row r="400" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
     </row>
     <row r="401" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4587,7 +4798,7 @@
       <c r="A405" s="1"/>
     </row>
     <row r="406" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="4"/>
+      <c r="A406" s="1"/>
     </row>
     <row r="407" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
@@ -4599,7 +4810,7 @@
       <c r="A409" s="1"/>
     </row>
     <row r="410" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="1"/>
+      <c r="A410" s="4"/>
     </row>
     <row r="411" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
@@ -4614,10 +4825,10 @@
       <c r="A414" s="1"/>
     </row>
     <row r="415" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="4"/>
+      <c r="A415" s="1"/>
     </row>
     <row r="416" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="4"/>
+      <c r="A416" s="1"/>
     </row>
     <row r="417" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="4"/>
@@ -4626,10 +4837,10 @@
       <c r="A418" s="4"/>
     </row>
     <row r="419" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="1"/>
+      <c r="A419" s="4"/>
     </row>
     <row r="420" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="1"/>
+      <c r="A420" s="4"/>
     </row>
     <row r="421" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
@@ -4647,13 +4858,13 @@
       <c r="A425" s="1"/>
     </row>
     <row r="426" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="4"/>
+      <c r="A426" s="1"/>
     </row>
     <row r="427" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
     </row>
     <row r="428" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="1"/>
+      <c r="A428" s="4"/>
     </row>
     <row r="429" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
@@ -4707,13 +4918,13 @@
       <c r="A445" s="1"/>
     </row>
     <row r="446" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="4"/>
+      <c r="A446" s="1"/>
     </row>
     <row r="447" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
     </row>
     <row r="448" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="1"/>
+      <c r="A448" s="4"/>
     </row>
     <row r="449" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
@@ -4737,10 +4948,10 @@
       <c r="A455" s="1"/>
     </row>
     <row r="456" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="4"/>
+      <c r="A456" s="1"/>
     </row>
     <row r="457" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="4"/>
+      <c r="A457" s="1"/>
     </row>
     <row r="458" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="4"/>
@@ -4752,22 +4963,22 @@
       <c r="A460" s="4"/>
     </row>
     <row r="461" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="1"/>
+      <c r="A461" s="4"/>
     </row>
     <row r="462" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="1"/>
+      <c r="A462" s="4"/>
     </row>
     <row r="463" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
     </row>
     <row r="464" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="4"/>
+      <c r="A464" s="1"/>
     </row>
     <row r="465" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
     </row>
     <row r="466" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="1"/>
+      <c r="A466" s="4"/>
     </row>
     <row r="467" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
@@ -4811,22 +5022,26 @@
     <row r="480" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
     </row>
-    <row r="481" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="1"/>
+    </row>
+    <row r="482" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="1"/>
+    </row>
+    <row r="483" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="497" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="498" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="499" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4858,10 +5073,12 @@
     <row r="525" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="526" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="527" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:A480">
-    <sortState ref="A2:F480">
-      <sortCondition ref="A1:A480"/>
+  <autoFilter ref="A1:A482">
+    <sortState ref="A2:F482">
+      <sortCondition ref="A1:A482"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="489">
   <si>
     <t>stop words</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1908,6 +1908,70 @@
   </si>
   <si>
     <t>산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장세나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>를</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>끼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>년경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤정수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제니스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타과</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2785,92 +2849,89 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E80" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E82" s="7">
-        <v>45427</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>44</v>
+        <v>462</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>322</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E89" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>425</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>49</v>
+        <v>426</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>289</v>
+        <v>427</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>289</v>
@@ -2878,1194 +2939,1182 @@
     </row>
     <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>335</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>336</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E108" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>418</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>338</v>
+        <v>417</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>61</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>394</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>392</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
+    <row r="117" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>63</v>
+        <v>341</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>326</v>
+      <c r="A119" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E120" s="7">
-        <v>45427</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>64</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>65</v>
+        <v>460</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>376</v>
+      <c r="A123" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="E127" s="7">
-        <v>45427</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+    <row r="131" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+    <row r="132" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="133" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
+    <row r="134" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
+    <row r="136" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="137" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="138" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+    <row r="139" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
+    <row r="140" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
+    <row r="141" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>348</v>
+    <row r="142" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>212</v>
+    <row r="143" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>315</v>
+    <row r="144" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>213</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+    <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B151" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+    <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B153" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
+    <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+    <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B156" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
+    <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
+    <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+    <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B159" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
+    <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+    <row r="161" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B161" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+    <row r="162" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B163" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+    <row r="164" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E164" s="7">
         <v>45400</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+    <row r="165" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
+    <row r="166" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+    <row r="167" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
+    <row r="168" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+    <row r="169" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B169" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="170" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+    <row r="171" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B171" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+    <row r="172" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B172" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
+    <row r="173" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B173" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
+    <row r="174" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+    <row r="175" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+    <row r="176" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B177" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+    <row r="178" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B178" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+    <row r="179" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B179" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
+    <row r="180" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+    <row r="181" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
+    <row r="182" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+    <row r="183" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="4" t="s">
+    <row r="184" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
+    <row r="185" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+    <row r="186" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+    <row r="187" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+    <row r="188" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+    <row r="189" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+    <row r="190" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B190" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+    <row r="191" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+    <row r="192" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E186" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E188" s="7">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E190" s="7">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>87</v>
+        <v>459</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>262</v>
+      <c r="A194" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>434</v>
+        <v>404</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="E196" s="7">
         <v>45397</v>
       </c>
-      <c r="F196" s="3" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>89</v>
+      <c r="A197" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>90</v>
+        <v>464</v>
+      </c>
+      <c r="E198" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
-        <v>233</v>
+      <c r="A199" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E200" s="7">
-        <v>45398</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>442</v>
+      <c r="A200" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E201" s="7">
-        <v>45398</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>442</v>
+        <v>87</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>290</v>
+        <v>88</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="4" t="s">
-        <v>91</v>
+      <c r="A204" s="1" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>92</v>
+        <v>434</v>
+      </c>
+      <c r="E205" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>95</v>
+      <c r="A208" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
-        <v>304</v>
+      <c r="A209" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E209" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>96</v>
+        <v>444</v>
+      </c>
+      <c r="E210" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
-        <v>365</v>
+      <c r="A212" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
-        <v>234</v>
+      <c r="A213" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
-        <v>207</v>
+      <c r="A214" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E216" s="7">
-        <v>45427</v>
+        <v>94</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>375</v>
+        <v>95</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>98</v>
+      <c r="A218" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E221" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>435</v>
+      <c r="A221" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>324</v>
+      <c r="A222" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>100</v>
+      <c r="A223" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
-        <v>101</v>
+      <c r="A224" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>372</v>
+        <v>465</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>373</v>
+        <v>466</v>
+      </c>
+      <c r="E225" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
-        <v>210</v>
+      <c r="A226" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E227" s="7">
-        <v>45398</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>442</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="4" t="s">
-        <v>387</v>
+      <c r="A228" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="4" t="s">
-        <v>102</v>
+      <c r="A229" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>386</v>
+        <v>433</v>
+      </c>
+      <c r="E230" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>103</v>
+        <v>324</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="4" t="s">
-        <v>104</v>
+      <c r="A232" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E233" s="7">
-        <v>45427</v>
+      <c r="A233" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>105</v>
+        <v>372</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>106</v>
+      <c r="A235" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>107</v>
+        <v>445</v>
+      </c>
+      <c r="E236" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>108</v>
+      <c r="A237" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>369</v>
+      <c r="A238" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>109</v>
+        <v>385</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E242" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B250" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+    <row r="251" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+    <row r="252" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+    <row r="253" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+    <row r="254" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
+    <row r="255" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B255" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+    <row r="256" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B256" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+    <row r="257" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+    <row r="258" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
+    <row r="259" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
+    <row r="260" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B260" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
+    <row r="261" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+    <row r="262" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E252" s="7">
+      <c r="E262" s="7">
         <v>45397</v>
       </c>
-      <c r="F252" s="3" t="s">
+      <c r="F262" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
+    <row r="263" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+    <row r="264" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+    <row r="265" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E255" s="7">
+      <c r="E265" s="7">
         <v>45400</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+    <row r="266" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
+    <row r="267" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B267" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="4" t="s">
+    <row r="268" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+    <row r="269" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E259" s="7">
+      <c r="E269" s="7">
         <v>45427</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
+    <row r="270" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B270" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
+    <row r="271" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+    <row r="272" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E273" s="7">
-        <v>45400</v>
+      <c r="A273" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="4" t="s">
-        <v>128</v>
+      <c r="A274" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
-        <v>198</v>
+      <c r="A275" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="4" t="s">
-        <v>129</v>
+      <c r="A276" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="4" t="s">
-        <v>130</v>
+      <c r="A277" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="4" t="s">
-        <v>131</v>
+      <c r="A278" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E279" s="7">
-        <v>45397</v>
+        <v>125</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>318</v>
+        <v>126</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
-        <v>244</v>
+      <c r="A281" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
-        <v>132</v>
+      <c r="A282" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>289</v>
@@ -4073,761 +4122,808 @@
     </row>
     <row r="283" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>133</v>
+        <v>449</v>
+      </c>
+      <c r="E283" s="7">
+        <v>45400</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>134</v>
+        <v>480</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="3" t="s">
-        <v>222</v>
+      <c r="A285" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>137</v>
+      <c r="A287" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
-        <v>138</v>
+      <c r="A288" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
-        <v>139</v>
+      <c r="A289" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>140</v>
+        <v>400</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E290" s="7">
+        <v>45397</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="4" t="s">
-        <v>141</v>
+      <c r="A291" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E292" s="7">
-        <v>45412</v>
+      <c r="A292" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
-        <v>205</v>
+      <c r="A293" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="3" t="s">
-        <v>243</v>
+      <c r="A294" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
-        <v>143</v>
+      <c r="A296" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
-        <v>144</v>
+      <c r="A297" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E298" s="7">
-        <v>45397</v>
+        <v>135</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
-        <v>279</v>
+      <c r="A300" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>194</v>
+      <c r="A301" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E302" s="7">
-        <v>45427</v>
+      <c r="A302" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
-        <v>359</v>
+      <c r="A303" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>290</v>
+        <v>457</v>
+      </c>
+      <c r="E303" s="7">
+        <v>45412</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E310" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E314" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B316" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+    <row r="317" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+    <row r="318" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B318" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
+    <row r="319" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B319" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="4" t="s">
+    <row r="320" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B320" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
+    <row r="321" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
+    <row r="322" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+    <row r="323" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B323" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="3" t="s">
+    <row r="324" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+    <row r="325" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E313" s="7">
+      <c r="E325" s="7">
         <v>45400</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="4" t="s">
+    <row r="326" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B326" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E314" s="7">
+      <c r="E326" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="3" t="s">
+    <row r="327" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="3" t="s">
+    <row r="328" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B328" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="3" t="s">
+    <row r="329" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B329" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+    <row r="330" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E318" s="7">
+      <c r="E330" s="7">
         <v>45398</v>
       </c>
-      <c r="F318" s="3" t="s">
+      <c r="F330" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="3" t="s">
+    <row r="331" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="4" t="s">
+    <row r="332" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E320" s="7">
+      <c r="E332" s="7">
         <v>45427</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+    <row r="333" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+    <row r="334" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+    <row r="335" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E329" s="7">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>437</v>
+        <v>153</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="3" t="s">
-        <v>306</v>
+      <c r="A338" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>266</v>
+      <c r="A339" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="3" t="s">
-        <v>236</v>
+      <c r="A340" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>242</v>
+      <c r="A341" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="3" t="s">
-        <v>228</v>
+      <c r="A342" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E342" s="7">
+        <v>45397</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E344" s="7">
-        <v>45400</v>
+      <c r="A344" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="3" t="s">
-        <v>251</v>
+      <c r="A346" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>166</v>
+        <v>317</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E350" s="7">
-        <v>45397</v>
+        <v>483</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
-        <v>167</v>
+      <c r="A351" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="4" t="s">
-        <v>168</v>
+      <c r="A352" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="4" t="s">
-        <v>169</v>
+      <c r="A353" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>245</v>
+        <v>265</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="4" t="s">
-        <v>170</v>
+      <c r="A355" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="4" t="s">
-        <v>171</v>
+      <c r="A356" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="4" t="s">
-        <v>172</v>
+      <c r="A357" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="3" t="s">
-        <v>232</v>
+      <c r="A358" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>173</v>
+        <v>452</v>
+      </c>
+      <c r="E359" s="7">
+        <v>45400</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="3" t="s">
-        <v>247</v>
+      <c r="A360" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
-        <v>174</v>
+      <c r="A361" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>289</v>
+      <c r="A362" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>289</v>
+      <c r="A364" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="4" t="s">
-        <v>176</v>
+      <c r="A365" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E365" s="7">
+        <v>45397</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="3" t="s">
-        <v>252</v>
+      <c r="A366" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E367" s="7">
+      <c r="E383" s="7">
         <v>45427</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="3" t="s">
+    <row r="384" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+    <row r="385" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+    <row r="386" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="3" t="s">
+    <row r="387" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B387" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+    <row r="388" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+    <row r="389" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B389" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="3" t="s">
+    <row r="390" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="B390" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+    <row r="391" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="3" t="s">
+    <row r="392" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="3" t="s">
+    <row r="393" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+    <row r="394" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+    <row r="395" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B395" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="3" t="s">
+    <row r="396" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B396" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
+    <row r="397" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
+    <row r="398" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
+    <row r="399" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+    <row r="400" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
+    <row r="401" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="3" t="s">
+    <row r="402" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="1" t="s">
+    <row r="403" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B403" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E387" s="7">
+      <c r="E403" s="7">
         <v>45398</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+    <row r="404" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
+    <row r="405" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
+    <row r="406" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B406" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E390" s="7">
+      <c r="E406" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
+    <row r="407" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
+    <row r="408" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="1" t="s">
+    <row r="409" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E393" s="7">
+      <c r="E409" s="7">
         <v>45400</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="1"/>
-    </row>
-    <row r="395" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="1"/>
-    </row>
-    <row r="396" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="1"/>
-    </row>
-    <row r="397" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="1"/>
-    </row>
-    <row r="398" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="1"/>
-    </row>
-    <row r="399" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="1"/>
-    </row>
-    <row r="400" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="1"/>
-    </row>
-    <row r="401" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="402" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="403" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="1"/>
-    </row>
-    <row r="404" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="1"/>
-    </row>
-    <row r="405" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="1"/>
-    </row>
-    <row r="406" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="1"/>
-    </row>
-    <row r="407" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="1"/>
-    </row>
-    <row r="408" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="4"/>
-    </row>
-    <row r="409" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="1"/>
-    </row>
-    <row r="410" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4"/>
     </row>
-    <row r="411" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
     </row>
-    <row r="412" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
     </row>
-    <row r="413" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
     </row>
-    <row r="414" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
     </row>
-    <row r="415" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
     </row>
-    <row r="416" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
     </row>
     <row r="417" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">

--- a/stopwords.xlsx
+++ b/stopwords.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\close\Downloads\6_dictionary_verb.xlsx_240514\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuh\PycharmProjects\project-emrkcd-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="511">
   <si>
     <t>stop words</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1972,13 +1972,101 @@
   </si>
   <si>
     <t>타과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올해 초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 아프면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1달 동안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>액기스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안먹고 옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전임의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿모닝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종은삼선병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국화인메가플러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미지참</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라파엘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2759,59 +2847,56 @@
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>34</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E67" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>425</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>36</v>
+        <v>423</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>289</v>
@@ -2819,127 +2904,127 @@
     </row>
     <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E83" s="7">
-        <v>45427</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>44</v>
+        <v>462</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>322</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E90" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>425</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>49</v>
+        <v>426</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>289</v>
+        <v>427</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>289</v>
@@ -2947,2031 +3032,2086 @@
     </row>
     <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>335</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>336</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>60</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E109" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>418</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>338</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>339</v>
+        <v>417</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>61</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>340</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>323</v>
+        <v>392</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>62</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>192</v>
+      <c r="A117" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E122" s="7">
-        <v>45427</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>64</v>
+      <c r="A123" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>65</v>
+      <c r="A124" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>376</v>
+        <v>460</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>66</v>
+      <c r="A126" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
+    <row r="131" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
+    <row r="132" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E132" s="7">
         <v>45427</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+    <row r="133" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>482</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>226</v>
+      <c r="A135" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>67</v>
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>68</v>
+        <v>482</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>69</v>
+      <c r="A139" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>294</v>
+        <v>217</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>290</v>
+      <c r="A141" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>290</v>
+        <v>68</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>290</v>
+      <c r="A143" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>290</v>
+      <c r="A144" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>212</v>
+      <c r="A146" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>315</v>
+      <c r="A147" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>391</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>213</v>
+      <c r="A148" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>475</v>
+      <c r="A149" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>349</v>
+      <c r="A150" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>350</v>
+      <c r="A151" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>477</v>
+      <c r="A152" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>384</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>70</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
-        <v>307</v>
+      <c r="A155" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B160" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
+    <row r="161" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>487</v>
+        <v>72</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E164" s="7">
-        <v>45400</v>
+      <c r="A164" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>73</v>
+        <v>329</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>333</v>
+        <v>487</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>74</v>
+        <v>331</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
-        <v>351</v>
+      <c r="A168" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E168" s="7">
+        <v>45400</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>289</v>
+        <v>73</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>316</v>
+      <c r="A170" s="4" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>353</v>
+        <v>74</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>77</v>
+      <c r="A172" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
-        <v>195</v>
+      <c r="A173" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
-        <v>209</v>
+      <c r="A174" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>78</v>
+        <v>352</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>484</v>
+        <v>76</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>79</v>
+      <c r="A177" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>448</v>
+      <c r="A178" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>447</v>
+        <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
-        <v>255</v>
+      <c r="A180" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>356</v>
+        <v>79</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
-        <v>215</v>
+      <c r="A182" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>291</v>
+        <v>447</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
-        <v>81</v>
+      <c r="A184" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
-        <v>238</v>
+      <c r="A185" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>82</v>
+        <v>508</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>357</v>
+      <c r="A187" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>235</v>
+      <c r="A188" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>83</v>
+        <v>496</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>283</v>
+      <c r="A190" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>358</v>
+      <c r="A191" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+    <row r="200" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E200" s="7">
         <v>45427</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+    <row r="201" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+    <row r="202" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+    <row r="203" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B203" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E196" s="7">
+      <c r="E203" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+    <row r="204" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+    <row r="205" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E205" s="7">
         <v>45427</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+    <row r="206" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+    <row r="207" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+    <row r="208" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
+    <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B209" s="3" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E205" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E209" s="7">
-        <v>45398</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E210" s="7">
-        <v>45398</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>442</v>
+        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>293</v>
+      <c r="A211" s="1" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>290</v>
+        <v>434</v>
+      </c>
+      <c r="E212" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="4" t="s">
-        <v>91</v>
+      <c r="A213" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E217" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E218" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E225" s="7">
-        <v>45427</v>
+        <v>95</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>375</v>
+      <c r="A226" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
-        <v>99</v>
+      <c r="A228" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E230" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>435</v>
+      <c r="A230" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
-        <v>324</v>
+      <c r="A231" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="4" t="s">
-        <v>101</v>
+      <c r="A233" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E233" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
-        <v>210</v>
+      <c r="A235" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E236" s="7">
-        <v>45398</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>442</v>
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="4" t="s">
-        <v>387</v>
+      <c r="A237" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="4" t="s">
-        <v>102</v>
+      <c r="A238" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E238" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E244" s="7">
+        <v>45398</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="4" t="s">
+    <row r="249" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+    <row r="250" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E242" s="7">
+      <c r="E250" s="7">
         <v>45427</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+    <row r="251" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+    <row r="252" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+    <row r="253" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+    <row r="254" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+    <row r="255" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+    <row r="256" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>116</v>
+        <v>481</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
-        <v>225</v>
+      <c r="A259" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
-        <v>240</v>
+      <c r="A261" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E262" s="7">
-        <v>45397</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>420</v>
+        <v>113</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>229</v>
+        <v>270</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E265" s="7">
-        <v>45400</v>
+        <v>116</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="4" t="s">
-        <v>120</v>
+      <c r="A268" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E269" s="7">
-        <v>45427</v>
+      <c r="A269" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>259</v>
+      <c r="A270" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E270" s="7">
+        <v>45397</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="4" t="s">
-        <v>122</v>
+      <c r="A273" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E273" s="7">
+        <v>45400</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>262</v>
+      <c r="A274" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
-        <v>123</v>
+      <c r="A275" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>201</v>
+      <c r="A276" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
-        <v>197</v>
+      <c r="A277" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E277" s="7">
+        <v>45427</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
-        <v>250</v>
+      <c r="A278" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
-        <v>125</v>
+      <c r="A279" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
-        <v>126</v>
+      <c r="A280" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>289</v>
+      <c r="A282" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E283" s="7">
-        <v>45400</v>
+      <c r="A283" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>480</v>
+        <v>123</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="4" t="s">
-        <v>128</v>
+      <c r="A285" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="3" t="s">
-        <v>198</v>
+      <c r="A286" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="4" t="s">
-        <v>129</v>
+      <c r="A287" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="4" t="s">
-        <v>130</v>
+      <c r="A288" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="4" t="s">
-        <v>131</v>
+      <c r="A289" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E290" s="7">
-        <v>45397</v>
+        <v>126</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>244</v>
+        <v>286</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>289</v>
+        <v>449</v>
+      </c>
+      <c r="E293" s="7">
+        <v>45400</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>133</v>
+        <v>480</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
-        <v>134</v>
+      <c r="A295" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
-        <v>222</v>
+      <c r="A296" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>137</v>
+      <c r="A298" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
-        <v>138</v>
+      <c r="A299" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
-        <v>139</v>
+      <c r="A300" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>140</v>
+        <v>400</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E301" s="7">
+        <v>45397</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="4" t="s">
-        <v>141</v>
+      <c r="A302" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E303" s="7">
-        <v>45412</v>
+      <c r="A303" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>479</v>
+        <v>132</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>206</v>
+      <c r="A305" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="3" t="s">
-        <v>243</v>
+      <c r="A306" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
-        <v>142</v>
+      <c r="A307" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
-        <v>143</v>
+      <c r="A308" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E310" s="7">
-        <v>45397</v>
+        <v>138</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="3" t="s">
-        <v>279</v>
+      <c r="A312" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>194</v>
+      <c r="A313" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
-        <v>471</v>
+      <c r="A314" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="E314" s="7">
-        <v>45427</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>290</v>
+        <v>479</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
-        <v>360</v>
+      <c r="A316" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
-        <v>146</v>
+      <c r="A317" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>290</v>
+        <v>142</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E321" s="7">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E325" s="7">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B330" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="4" t="s">
+    <row r="331" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B331" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+    <row r="332" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+    <row r="333" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+    <row r="334" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B334" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="3" t="s">
+    <row r="335" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+    <row r="336" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E325" s="7">
+      <c r="E336" s="7">
         <v>45400</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="4" t="s">
+    <row r="337" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B337" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E326" s="7">
+      <c r="E337" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="3" t="s">
+    <row r="338" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="3" t="s">
+    <row r="339" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B339" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="3" t="s">
+    <row r="340" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B340" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+    <row r="341" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E330" s="7">
+      <c r="E341" s="7">
         <v>45398</v>
       </c>
-      <c r="F330" s="3" t="s">
+      <c r="F341" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="3" t="s">
+    <row r="342" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="4" t="s">
+    <row r="343" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E332" s="7">
+      <c r="E343" s="7">
         <v>45427</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+    <row r="344" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+    <row r="345" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+    <row r="346" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+    <row r="347" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+    <row r="348" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+    <row r="349" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+    <row r="350" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+    <row r="351" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+    <row r="353" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="4" t="s">
+    <row r="354" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B354" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E342" s="7">
+      <c r="E354" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+    <row r="355" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="4" t="s">
+    <row r="356" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
+    <row r="357" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E359" s="7">
-        <v>45400</v>
+        <v>485</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="3" t="s">
-        <v>251</v>
+      <c r="A361" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>164</v>
+        <v>483</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
-        <v>165</v>
+      <c r="A363" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
-        <v>166</v>
+      <c r="A364" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
-        <v>407</v>
+      <c r="A365" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E365" s="7">
-        <v>45397</v>
+        <v>500</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>167</v>
+        <v>436</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="4" t="s">
-        <v>168</v>
+      <c r="A367" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="4" t="s">
-        <v>169</v>
+      <c r="A368" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
-        <v>170</v>
+        <v>504</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="4" t="s">
-        <v>171</v>
+      <c r="A371" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="4" t="s">
-        <v>172</v>
+      <c r="A372" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="3" t="s">
-        <v>232</v>
+      <c r="A373" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>173</v>
+        <v>452</v>
+      </c>
+      <c r="E374" s="7">
+        <v>45400</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="3" t="s">
-        <v>247</v>
+      <c r="A375" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
-        <v>174</v>
+      <c r="A376" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>289</v>
+      <c r="A377" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>289</v>
+      <c r="A379" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="4" t="s">
-        <v>176</v>
+      <c r="A380" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E380" s="7">
+        <v>45397</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="3" t="s">
-        <v>252</v>
+      <c r="A381" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
-        <v>488</v>
+      <c r="A382" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E383" s="7">
+      <c r="E399" s="7">
         <v>45427</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="3" t="s">
+    <row r="400" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
+    <row r="401" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
+    <row r="402" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="3" t="s">
+    <row r="403" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B403" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+    <row r="404" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
+    <row r="405" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B405" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="3" t="s">
+    <row r="406" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B406" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
+    <row r="407" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="3" t="s">
+    <row r="408" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="3" t="s">
+    <row r="410" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
+    <row r="411" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="1" t="s">
+    <row r="412" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B412" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="3" t="s">
+    <row r="413" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B413" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="1" t="s">
+    <row r="414" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
+    <row r="415" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="1" t="s">
+    <row r="416" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
+    <row r="417" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
+    <row r="418" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="3" t="s">
+    <row r="419" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
+    <row r="420" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B420" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E403" s="7">
+      <c r="E420" s="7">
         <v>45398</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+    <row r="421" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
+    <row r="422" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+    <row r="423" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B423" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E406" s="7">
+      <c r="E423" s="7">
         <v>45397</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
+    <row r="424" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+    <row r="425" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
+    <row r="426" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E409" s="7">
+      <c r="E426" s="7">
         <v>45400</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="4"/>
-    </row>
-    <row r="411" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="1"/>
-    </row>
-    <row r="412" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="1"/>
-    </row>
-    <row r="413" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="1"/>
-    </row>
-    <row r="414" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="1"/>
-    </row>
-    <row r="415" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="416" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="1"/>
-    </row>
-    <row r="417" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="4"/>
-    </row>
-    <row r="418" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="4"/>
-    </row>
-    <row r="419" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="4"/>
-    </row>
-    <row r="420" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="4"/>
-    </row>
-    <row r="421" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="1"/>
-    </row>
-    <row r="422" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="1"/>
-    </row>
-    <row r="423" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="1"/>
-    </row>
-    <row r="424" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="1"/>
-    </row>
-    <row r="425" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="1"/>
-    </row>
-    <row r="426" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="1"/>
-    </row>
-    <row r="427" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
     </row>
-    <row r="428" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="4"/>
     </row>
-    <row r="429" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
     </row>
-    <row r="430" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
     </row>
-    <row r="431" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
     </row>
-    <row r="432" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
     </row>
     <row r="433" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
